--- a/research.xlsx
+++ b/research.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BMSTU\Parallel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BMSTU\ProgrammingParallelProcesses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Простая р-ция" sheetId="1" r:id="rId1"/>
+    <sheet name="1 часть" sheetId="1" r:id="rId1"/>
+    <sheet name="2 часть" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Число узлов</t>
   </si>
@@ -53,7 +54,40 @@
     <t>Параллельная реализация 0 узел сливает все отсортированные подмассивы</t>
   </si>
   <si>
-    <t xml:space="preserve">Параллельная реализация 0 узел рассылает всем весь массив Bcast </t>
+    <t xml:space="preserve">Пар-ая р-ция главный узел в подгруппе рассылает всем весь массив Bcast </t>
+  </si>
+  <si>
+    <t>1 способ</t>
+  </si>
+  <si>
+    <t>2 способ</t>
+  </si>
+  <si>
+    <t>3 способ</t>
+  </si>
+  <si>
+    <t>Ускорение</t>
+  </si>
+  <si>
+    <t>Эффективность</t>
+  </si>
+  <si>
+    <t>Число потоков</t>
+  </si>
+  <si>
+    <t>1 поток</t>
+  </si>
+  <si>
+    <t>2 потока</t>
+  </si>
+  <si>
+    <t>4 потока</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>3 способ + OpenMP</t>
   </si>
 </sst>
 </file>
@@ -62,7 +96,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -238,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -276,20 +310,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -303,19 +334,116 @@
     <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,7 +546,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$A$1:$C$1</c:f>
+              <c:f>'1 часть'!$A$2:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -441,7 +569,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Простая р-ция'!$B$3:$B$11</c:f>
+              <c:f>'1 часть'!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -474,7 +602,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$C$3:$C$10</c:f>
+              <c:f>'1 часть'!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -516,11 +644,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="477196816"/>
-        <c:axId val="477192112"/>
+        <c:axId val="356458480"/>
+        <c:axId val="356457696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="477196816"/>
+        <c:axId val="356458480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +742,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -633,7 +761,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477192112"/>
+        <c:crossAx val="356457696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -641,7 +769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477192112"/>
+        <c:axId val="356457696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +880,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477196816"/>
+        <c:crossAx val="356458480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,7 +1047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$G$3</c:f>
+              <c:f>'1 часть'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -942,7 +1070,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Простая р-ция'!$H$35:$H$42</c:f>
+              <c:f>'1 часть'!$H$36:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -975,7 +1103,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$I$3:$I$10</c:f>
+              <c:f>'1 часть'!$I$4:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1013,7 +1141,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$G$11</c:f>
+              <c:f>'1 часть'!$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1036,7 +1164,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Простая р-ция'!$H$35:$H$42</c:f>
+              <c:f>'1 часть'!$H$36:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1069,7 +1197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$I$11:$I$18</c:f>
+              <c:f>'1 часть'!$I$12:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1107,7 +1235,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$G$19</c:f>
+              <c:f>'1 часть'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1130,7 +1258,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Простая р-ция'!$H$35:$H$42</c:f>
+              <c:f>'1 часть'!$H$36:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1163,7 +1291,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$I$19:$I$26</c:f>
+              <c:f>'1 часть'!$I$20:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1201,7 +1329,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$G$27</c:f>
+              <c:f>'1 часть'!$G$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1224,7 +1352,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Простая р-ция'!$H$35:$H$42</c:f>
+              <c:f>'1 часть'!$H$36:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1257,7 +1385,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$I$27:$I$34</c:f>
+              <c:f>'1 часть'!$I$28:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1295,7 +1423,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$G$35</c:f>
+              <c:f>'1 часть'!$G$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1318,7 +1446,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Простая р-ция'!$H$35:$H$42</c:f>
+              <c:f>'1 часть'!$H$36:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1351,7 +1479,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$I$35:$I$42</c:f>
+              <c:f>'1 часть'!$I$36:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1393,11 +1521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="477197208"/>
-        <c:axId val="477191720"/>
+        <c:axId val="356458872"/>
+        <c:axId val="356459264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="477197208"/>
+        <c:axId val="356458872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1623,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1514,7 +1642,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477191720"/>
+        <c:crossAx val="356459264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1522,7 +1650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477191720"/>
+        <c:axId val="356459264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1757,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477197208"/>
+        <c:crossAx val="356458872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1796,7 +1924,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$M$3</c:f>
+              <c:f>'1 часть'!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1819,7 +1947,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Простая р-ция'!$N$3:$N$10</c:f>
+              <c:f>'1 часть'!$N$4:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1852,7 +1980,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$O$3:$O$10</c:f>
+              <c:f>'1 часть'!$O$4:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1890,7 +2018,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$M$11</c:f>
+              <c:f>'1 часть'!$M$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1913,7 +2041,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$O$11:$O$18</c:f>
+              <c:f>'1 часть'!$O$12:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1951,7 +2079,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$M$19</c:f>
+              <c:f>'1 часть'!$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1974,7 +2102,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$O$19:$O$26</c:f>
+              <c:f>'1 часть'!$O$20:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2012,7 +2140,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$M$27</c:f>
+              <c:f>'1 часть'!$M$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2035,7 +2163,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$O$27:$O$34</c:f>
+              <c:f>'1 часть'!$O$28:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2073,7 +2201,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$M$35</c:f>
+              <c:f>'1 часть'!$M$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2096,7 +2224,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$O$35:$O$42</c:f>
+              <c:f>'1 часть'!$O$36:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2138,11 +2266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="477796912"/>
-        <c:axId val="477799656"/>
+        <c:axId val="356460048"/>
+        <c:axId val="356460440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="477796912"/>
+        <c:axId val="356460048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2368,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2259,7 +2387,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477799656"/>
+        <c:crossAx val="356460440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,7 +2395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477799656"/>
+        <c:axId val="356460440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2507,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477796912"/>
+        <c:crossAx val="356460048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2550,7 +2678,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$S$3</c:f>
+              <c:f>'1 часть'!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2573,7 +2701,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Простая р-ция'!$T$3:$T$10</c:f>
+              <c:f>'1 часть'!$T$4:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2606,7 +2734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$U$3:$U$10</c:f>
+              <c:f>'1 часть'!$U$4:$U$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2644,7 +2772,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$S$11</c:f>
+              <c:f>'1 часть'!$S$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2667,7 +2795,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$U$11:$U$18</c:f>
+              <c:f>'1 часть'!$U$12:$U$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2705,7 +2833,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$S$19</c:f>
+              <c:f>'1 часть'!$S$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2728,7 +2856,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$U$19:$U$26</c:f>
+              <c:f>'1 часть'!$U$20:$U$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2766,7 +2894,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$S$27</c:f>
+              <c:f>'1 часть'!$S$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2789,7 +2917,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$U$27:$U$34</c:f>
+              <c:f>'1 часть'!$U$28:$U$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2827,7 +2955,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Простая р-ция'!$S$35</c:f>
+              <c:f>'1 часть'!$S$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2850,9 +2978,9 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Простая р-ция'!$U$35:$U$42</c:f>
+              <c:f>'1 часть'!$U$36:$U$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9.2632000000000006E-2</c:v>
@@ -2892,11 +3020,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="468812264"/>
-        <c:axId val="468809520"/>
+        <c:axId val="356462008"/>
+        <c:axId val="356462400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468812264"/>
+        <c:axId val="356462008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3142,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468809520"/>
+        <c:crossAx val="356462400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3022,7 +3150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468809520"/>
+        <c:axId val="356462400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3129,7 +3257,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468812264"/>
+        <c:crossAx val="356462008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3143,6 +3271,3177 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Размер</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> массива: 6</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>e7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$G$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('1 часть'!$G$4,'1 часть'!$G$12,'1 часть'!$G$20,'1 часть'!$G$28,'1 часть'!$G$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('1 часть'!$I$10,'1 часть'!$I$18,'1 часть'!$I$26,'1 часть'!$I$34,'1 часть'!$I$42)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.584503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.811556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0460860000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4877630000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3298509999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$M$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('1 часть'!$O$10,'1 часть'!$O$18,'1 часть'!$O$26,'1 часть'!$O$34,'1 часть'!$O$42)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.85567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9747509999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.069553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5948289999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8000100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$S$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('1 часть'!$U$10,'1 часть'!$U$18,'1 часть'!$U$26,'1 часть'!$U$34,'1 часть'!$U$42)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.770659999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1574030000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6638260000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6261109999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0918910000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="353290496"/>
+        <c:axId val="353287360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353290496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число узлов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353287360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353287360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353290496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Размер</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> массива: 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>e8</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$G$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('1 часть'!$G$4,'1 часть'!$G$12,'1 часть'!$G$20,'1 часть'!$G$28,'1 часть'!$G$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('1 часть'!$I$11,'1 часть'!$I$19,'1 часть'!$I$27,'1 часть'!$I$35,'1 часть'!$I$43)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.164843000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.165154000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.661725000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.69699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.356674999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$M$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('1 часть'!$O$11,'1 часть'!$O$19,'1 часть'!$O$27,'1 часть'!$O$35,'1 часть'!$O$43)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.624075999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.014163999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.242729000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.281098999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.087198000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$S$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('1 часть'!$U$11,'1 часть'!$U$19,'1 часть'!$U$27,'1 часть'!$U$35,'1 часть'!$U$43)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.786283999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.420049000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6105529999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.648949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8938509999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="353288144"/>
+        <c:axId val="353290888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353288144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число узлов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353290888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353290888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353288144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Размер</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> массива 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>e8</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$AB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('1 часть'!$G$4,'1 часть'!$G$12,'1 часть'!$G$20,'1 часть'!$G$28,'1 часть'!$G$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 часть'!$AB$4:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0359025276780756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1700430310111471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5346307905937842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5315727137778798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4765324875011407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$AC$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 часть'!$AC$4:$AC$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0180344662477678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8052438350879878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.64619194747806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6363161175668091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4446417390579658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 часть'!$AD$4:$AD$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0118696195411057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7577263859537671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8202567531753897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0764678748475891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9316525698045988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="353289320"/>
+        <c:axId val="353259632"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1 часть'!$AE$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>3 способ + OpenMP</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1 часть'!$AE$4:$AE$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2.4545254163597856</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9348593160158885</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.4147113563776545</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353289320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> узлов</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353259632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353259632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Ускорение</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353289320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Размер</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> массива 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>e8</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$AH$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 часть'!$AG$4:$AG$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 часть'!$AH$4:$AH$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0359025276780756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58502151550557357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38365769764844604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19144658922223498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14765324875011407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$AI$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 часть'!$AI$4:$AI$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0180344662477678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9026219175439939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66154798686951499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32953951469585113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24446417390579658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 часть'!$AJ$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 способ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 часть'!$AJ$4:$AJ$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0118696195411057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87886319297688353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70506418829384743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50955848435594864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3931652569804599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="353263160"/>
+        <c:axId val="353260024"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1 часть'!$AK$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>3 способ + OpenMP</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'1 часть'!$AK$4:$AK$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2.4545254163597856</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.4674296580079442</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.17626604707346186</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353263160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число узлов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353260024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353260024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Эффективность</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353263160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OpenMP</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 часть'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 поток</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2 часть'!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 часть'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.34E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5079999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8429999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23242099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.54006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.270959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.228383000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.104227000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 часть'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 потока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 часть'!$C$12:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.7099999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3231E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16317799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.711063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2684930000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.413092000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.678325000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 часть'!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 потока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 часть'!$C$20:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.4799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5200000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.120951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0054510000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5020559999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3381689999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.188033000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="353261592"/>
+        <c:axId val="353261984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353261592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> массива</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2100000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353261984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353261984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353261592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3370,6 +6669,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4919,6 +8418,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5440,13 +11519,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>199575</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>4312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5470,13 +11549,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9075</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>4311</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5500,13 +11579,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>628200</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>13837</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5530,13 +11609,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>218625</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>194812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5551,6 +11630,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>204786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5822,10 +12056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5849,1136 +12083,2000 @@
     <col min="17" max="18" width="9.140625" style="1"/>
     <col min="19" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="22" width="16.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="1" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="1"/>
+    <col min="28" max="28" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.140625" style="1"/>
+    <col min="31" max="31" width="13.28515625" style="1" customWidth="1"/>
+    <col min="32" max="33" width="9.140625" style="1"/>
+    <col min="34" max="35" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.28515625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="M1" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="S1" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+    </row>
+    <row r="2" spans="1:37" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="S1" s="17" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="S2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="AA2" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="39"/>
+      <c r="AG2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="3" spans="1:37" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="V3" s="58"/>
+      <c r="W3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK3" s="31" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="7">
         <v>1000</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C4" s="13">
         <v>1.34E-4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H4" s="7">
         <v>1000</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I4" s="22">
         <v>1.2400000000000001E-4</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M4" s="4">
         <v>1</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N4" s="5">
         <v>1000</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O4" s="21">
         <v>1.27E-4</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T4" s="5">
         <v>1000</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U4" s="21">
         <v>1.2E-4</v>
       </c>
+      <c r="V4" s="58"/>
+      <c r="W4" s="4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="34">
+        <f>$C$11/I11</f>
+        <v>1.0359025276780756</v>
+      </c>
+      <c r="AC4" s="34">
+        <f>C11/O11</f>
+        <v>1.0180344662477678</v>
+      </c>
+      <c r="AD4" s="35">
+        <f>C11/U11</f>
+        <v>1.0118696195411057</v>
+      </c>
+      <c r="AE4" s="33">
+        <f>C11/Y11</f>
+        <v>2.4545254163597856</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="26">
+        <f>$AB4/$AA4</f>
+        <v>1.0359025276780756</v>
+      </c>
+      <c r="AI4" s="26">
+        <f>$AC4/$AA4</f>
+        <v>1.0180344662477678</v>
+      </c>
+      <c r="AJ4" s="27">
+        <f>$AD4/$AA4</f>
+        <v>1.0118696195411057</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>AE4/AA4</f>
+        <v>2.4545254163597856</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="13">
-        <v>2.5079999999999998E-3</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7">
-        <v>10000</v>
-      </c>
-      <c r="I4" s="23">
-        <v>1.5560000000000001E-3</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7">
-        <v>10000</v>
-      </c>
-      <c r="O4" s="23">
-        <v>1.544E-3</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7">
-        <v>10000</v>
-      </c>
-      <c r="U4" s="23">
-        <v>1.4989999999999999E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C5" s="13">
-        <v>1.8429999999999998E-2</v>
+        <v>2.5079999999999998E-3</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1.8148999999999998E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1.5560000000000001E-3</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="7">
-        <v>100000</v>
-      </c>
-      <c r="O5" s="23">
-        <v>1.8762000000000001E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="O5" s="22">
+        <v>1.544E-3</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="7">
-        <v>100000</v>
-      </c>
-      <c r="U5" s="23">
-        <v>1.8414E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="U5" s="22">
+        <v>1.4989999999999999E-3</v>
+      </c>
+      <c r="V5" s="58"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>1.049E-3</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="33">
+        <f>$C$11/I19</f>
+        <v>1.1700430310111471</v>
+      </c>
+      <c r="AC5" s="33">
+        <f>C11/O19</f>
+        <v>1.8052438350879878</v>
+      </c>
+      <c r="AD5" s="36">
+        <f>C11/U19</f>
+        <v>1.7577263859537671</v>
+      </c>
+      <c r="AE5" s="33">
+        <f>C11/Y19</f>
+        <v>2.9348593160158885</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="12">
+        <f t="shared" ref="AH5:AH8" si="0">$AB5/$AA5</f>
+        <v>0.58502151550557357</v>
+      </c>
+      <c r="AI5" s="12">
+        <f t="shared" ref="AI5:AI8" si="1">$AC5/$AA5</f>
+        <v>0.9026219175439939</v>
+      </c>
+      <c r="AJ5" s="28">
+        <f t="shared" ref="AJ5:AJ8" si="2">$AD5/$AA5</f>
+        <v>0.87886319297688353</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>AE5/AA5</f>
+        <v>1.4674296580079442</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C6" s="13">
-        <v>0.23242099999999999</v>
+        <v>1.8429999999999998E-2</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="23">
-        <v>0.206677</v>
+        <v>100000</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1.8148999999999998E-2</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="O6" s="23">
-        <v>0.22022700000000001</v>
+        <v>100000</v>
+      </c>
+      <c r="O6" s="22">
+        <v>1.8762000000000001E-2</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="U6" s="23">
-        <v>0.215197</v>
+        <v>100000</v>
+      </c>
+      <c r="U6" s="22">
+        <v>1.8414E-2</v>
+      </c>
+      <c r="V6" s="58"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>1.0519000000000001E-2</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="33">
+        <f>$C$11/I27</f>
+        <v>1.5346307905937842</v>
+      </c>
+      <c r="AC6" s="33">
+        <f>C11/O27</f>
+        <v>2.64619194747806</v>
+      </c>
+      <c r="AD6" s="36">
+        <f>C11/U27</f>
+        <v>2.8202567531753897</v>
+      </c>
+      <c r="AE6" s="33">
+        <f>C11/Y27</f>
+        <v>3.4147113563776545</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.38365769764844604</v>
+      </c>
+      <c r="AI6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66154798686951499</v>
+      </c>
+      <c r="AJ6" s="28">
+        <f t="shared" si="2"/>
+        <v>0.70506418829384743</v>
+      </c>
+      <c r="AK6" s="1">
+        <f>AJ6/AG6</f>
+        <v>0.17626604707346186</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="C7" s="13">
-        <v>2.54006</v>
+        <v>0.23242099999999999</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="I7" s="23">
-        <v>2.4347539999999999</v>
+        <v>1000000</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.206677</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="O7" s="23">
-        <v>2.4862890000000002</v>
+        <v>1000000</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0.22022700000000001</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="U7" s="23">
-        <v>2.4651100000000001</v>
+        <v>1000000</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0.215197</v>
+      </c>
+      <c r="V7" s="58"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0.105294</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="33">
+        <f>$C$11/I35</f>
+        <v>1.5315727137778798</v>
+      </c>
+      <c r="AC7" s="33">
+        <f>C11/O35</f>
+        <v>2.6363161175668091</v>
+      </c>
+      <c r="AD7" s="36">
+        <f>C11/U35</f>
+        <v>4.0764678748475891</v>
+      </c>
+      <c r="AE7" s="33"/>
+      <c r="AG7" s="6">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.19144658922223498</v>
+      </c>
+      <c r="AI7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.32953951469585113</v>
+      </c>
+      <c r="AJ7" s="28">
+        <f t="shared" si="2"/>
+        <v>0.50955848435594864</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
-        <v>40000000</v>
+        <v>10000000</v>
       </c>
       <c r="C8" s="13">
-        <v>10.270959</v>
+        <v>2.54006</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="I8" s="23">
-        <v>10.154075000000001</v>
+        <v>10000000</v>
+      </c>
+      <c r="I8" s="22">
+        <v>2.4347539999999999</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="O8" s="23">
-        <v>10.437588999999999</v>
+        <v>10000000</v>
+      </c>
+      <c r="O8" s="22">
+        <v>2.4862890000000002</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="U8" s="23">
-        <v>10.411372999999999</v>
+        <v>10000000</v>
+      </c>
+      <c r="U8" s="22">
+        <v>2.4651100000000001</v>
+      </c>
+      <c r="V8" s="58"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>1.349855</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="37">
+        <f>$C$11/I43</f>
+        <v>1.4765324875011407</v>
+      </c>
+      <c r="AC8" s="37">
+        <f>C11/O43</f>
+        <v>2.4446417390579658</v>
+      </c>
+      <c r="AD8" s="38">
+        <f>C11/U43</f>
+        <v>3.9316525698045988</v>
+      </c>
+      <c r="AE8" s="33"/>
+      <c r="AG8" s="8">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="29">
+        <f t="shared" si="0"/>
+        <v>0.14765324875011407</v>
+      </c>
+      <c r="AI8" s="29">
+        <f t="shared" si="1"/>
+        <v>0.24446417390579658</v>
+      </c>
+      <c r="AJ8" s="30">
+        <f t="shared" si="2"/>
+        <v>0.3931652569804599</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
-        <v>60000000</v>
+        <v>40000000</v>
       </c>
       <c r="C9" s="13">
-        <v>16.228383000000001</v>
+        <v>10.270959</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="I9" s="23">
-        <v>15.584503</v>
+        <v>40000000</v>
+      </c>
+      <c r="I9" s="22">
+        <v>10.154075000000001</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="O9" s="23">
-        <v>15.85567</v>
+        <v>40000000</v>
+      </c>
+      <c r="O9" s="22">
+        <v>10.437588999999999</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="U9" s="22">
+        <v>10.411372999999999</v>
+      </c>
+      <c r="V9" s="58"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>4.6895170000000004</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7">
         <v>60000000</v>
       </c>
-      <c r="U9" s="23">
+      <c r="C10" s="13">
+        <v>16.228383000000001</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="I10" s="22">
+        <v>15.584503</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="O10" s="22">
+        <v>15.85567</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="U10" s="22">
         <v>15.770659999999999</v>
       </c>
+      <c r="V10" s="58"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>7.0734389999999996</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9">
+    <row r="11" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9">
         <v>100000000</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <v>27.104227000000002</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
         <v>100000000</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I11" s="23">
         <v>26.164843000000001</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9">
+      <c r="M11" s="8"/>
+      <c r="N11" s="9">
         <v>100000000</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O11" s="23">
         <v>26.624075999999999</v>
       </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9">
+      <c r="S11" s="8"/>
+      <c r="T11" s="9">
         <v>100000000</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U11" s="23">
         <v>26.786283999999998</v>
       </c>
+      <c r="V11" s="58"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="Y11" s="23">
+        <v>11.042553</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="15"/>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="22">
-        <v>1.1356E-2</v>
-      </c>
-      <c r="M11" s="4">
-        <v>2</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="O11" s="22">
-        <v>1.1377999999999999E-2</v>
-      </c>
-      <c r="S11" s="4">
-        <v>2</v>
-      </c>
-      <c r="T11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U11" s="22">
-        <v>1.1318E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7">
-        <v>10000</v>
-      </c>
-      <c r="I12" s="23">
-        <v>1.251E-2</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7">
-        <v>10000</v>
-      </c>
-      <c r="O12" s="23">
-        <v>1.2133E-2</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7">
-        <v>10000</v>
-      </c>
-      <c r="U12" s="23">
-        <v>1.2866000000000001E-2</v>
+      <c r="C12" s="15"/>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="21">
+        <v>1.1356E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="21">
+        <v>1.1377999999999999E-2</v>
+      </c>
+      <c r="S12" s="4">
+        <v>2</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U12" s="21">
+        <v>1.1318E-2</v>
+      </c>
+      <c r="V12" s="58"/>
+      <c r="W12" s="4">
+        <v>2</v>
+      </c>
+      <c r="X12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>1.2161999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I13" s="23">
-        <v>2.4822E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="I13" s="22">
+        <v>1.251E-2</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="7">
-        <v>100000</v>
-      </c>
-      <c r="O13" s="23">
-        <v>2.0749E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="O13" s="22">
+        <v>1.2133E-2</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="7">
-        <v>100000</v>
-      </c>
-      <c r="U13" s="23">
-        <v>2.1212000000000002E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="U13" s="22">
+        <v>1.2866000000000001E-2</v>
+      </c>
+      <c r="V13" s="58"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>1.2659E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="12"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.19517100000000001</v>
+        <v>100000</v>
+      </c>
+      <c r="I14" s="22">
+        <v>2.4822E-2</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="O14" s="23">
-        <v>0.13492199999999999</v>
+        <v>100000</v>
+      </c>
+      <c r="O14" s="22">
+        <v>2.0749E-2</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="U14" s="23">
-        <v>0.138236</v>
+        <v>100000</v>
+      </c>
+      <c r="U14" s="22">
+        <v>2.1212000000000002E-2</v>
+      </c>
+      <c r="V14" s="58"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>1.6407000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G15" s="6"/>
       <c r="H15" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="I15" s="23">
-        <v>2.1912410000000002</v>
+        <v>1000000</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0.19517100000000001</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="O15" s="23">
-        <v>1.433813</v>
+        <v>1000000</v>
+      </c>
+      <c r="O15" s="22">
+        <v>0.13492199999999999</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="U15" s="23">
-        <v>1.4679390000000001</v>
+        <v>1000000</v>
+      </c>
+      <c r="U15" s="22">
+        <v>0.138236</v>
+      </c>
+      <c r="V15" s="58"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="Y15" s="22">
+        <v>7.6261999999999996E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
       <c r="H16" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="I16" s="23">
-        <v>8.9355969999999996</v>
+        <v>10000000</v>
+      </c>
+      <c r="I16" s="22">
+        <v>2.1912410000000002</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="O16" s="23">
-        <v>5.9415060000000004</v>
+        <v>10000000</v>
+      </c>
+      <c r="O16" s="22">
+        <v>1.433813</v>
       </c>
       <c r="S16" s="6"/>
       <c r="T16" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="U16" s="23">
-        <v>6.1146050000000001</v>
+        <v>10000000</v>
+      </c>
+      <c r="U16" s="22">
+        <v>1.4679390000000001</v>
+      </c>
+      <c r="V16" s="58"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="Y16" s="22">
+        <v>1.060716</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G17" s="6"/>
       <c r="H17" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="I17" s="23">
-        <v>13.811556</v>
+        <v>40000000</v>
+      </c>
+      <c r="I17" s="22">
+        <v>8.9355969999999996</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="O17" s="23">
-        <v>8.9747509999999995</v>
+        <v>40000000</v>
+      </c>
+      <c r="O17" s="22">
+        <v>5.9415060000000004</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="U17" s="22">
+        <v>6.1146050000000001</v>
+      </c>
+      <c r="V17" s="58"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="Y17" s="22">
+        <v>3.5733570000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G18" s="6"/>
+      <c r="H18" s="7">
         <v>60000000</v>
       </c>
-      <c r="U17" s="23">
+      <c r="I18" s="22">
+        <v>13.811556</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="O18" s="22">
+        <v>8.9747509999999995</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="U18" s="22">
         <v>9.1574030000000004</v>
       </c>
+      <c r="V18" s="58"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="Y18" s="22">
+        <v>7.4541719999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="6"/>
-      <c r="H18" s="9">
+    <row r="19" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="6"/>
+      <c r="H19" s="9">
         <v>100000000</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I19" s="22">
         <v>23.165154000000001</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9">
+      <c r="M19" s="8"/>
+      <c r="N19" s="9">
         <v>100000000</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O19" s="23">
         <v>15.014163999999999</v>
       </c>
-      <c r="S18" s="8"/>
-      <c r="T18" s="9">
+      <c r="S19" s="8"/>
+      <c r="T19" s="9">
         <v>100000000</v>
       </c>
-      <c r="U18" s="24">
+      <c r="U19" s="23">
         <v>15.420049000000001</v>
       </c>
+      <c r="V19" s="58"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="Y19" s="23">
+        <v>9.2352729999999994</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G19" s="4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
         <v>4</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="5">
         <v>1000</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I20" s="21">
         <v>2.1881000000000001E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="4">
         <v>4</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N20" s="5">
         <v>1000</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O20" s="21">
         <v>3.1685999999999999E-2</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S20" s="4">
         <v>4</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T20" s="5">
         <v>1000</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U20" s="21">
         <v>3.2779000000000003E-2</v>
       </c>
+      <c r="V20" s="58"/>
+      <c r="W20" s="4">
+        <v>4</v>
+      </c>
+      <c r="X20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>3.2819000000000001E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G20" s="6"/>
-      <c r="H20" s="7">
-        <v>10000</v>
-      </c>
-      <c r="I20" s="23">
-        <v>2.1861999999999999E-2</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7">
-        <v>10000</v>
-      </c>
-      <c r="O20" s="23">
-        <v>3.2034E-2</v>
-      </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="7">
-        <v>10000</v>
-      </c>
-      <c r="U20" s="23">
-        <v>3.3631000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="12"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G21" s="6"/>
       <c r="H21" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I21" s="23">
-        <v>3.0377000000000001E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="I21" s="22">
+        <v>2.1861999999999999E-2</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="7">
-        <v>100000</v>
-      </c>
-      <c r="O21" s="23">
-        <v>3.8440000000000002E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="O21" s="22">
+        <v>3.2034E-2</v>
       </c>
       <c r="S21" s="6"/>
       <c r="T21" s="7">
-        <v>100000</v>
-      </c>
-      <c r="U21" s="23">
-        <v>3.7782000000000003E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="U21" s="22">
+        <v>3.3631000000000001E-2</v>
+      </c>
+      <c r="V21" s="58"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>3.3341999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="12"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="I22" s="23">
-        <v>0.16530700000000001</v>
+        <v>100000</v>
+      </c>
+      <c r="I22" s="22">
+        <v>3.0377000000000001E-2</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="O22" s="23">
-        <v>0.114217</v>
+        <v>100000</v>
+      </c>
+      <c r="O22" s="22">
+        <v>3.8440000000000002E-2</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="U22" s="23">
-        <v>0.10934000000000001</v>
+        <v>100000</v>
+      </c>
+      <c r="U22" s="22">
+        <v>3.7782000000000003E-2</v>
+      </c>
+      <c r="V22" s="58"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>3.7331999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="I23" s="23">
-        <v>2.0694340000000002</v>
+        <v>1000000</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0.16530700000000001</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="O23" s="23">
-        <v>1.0179640000000001</v>
+        <v>1000000</v>
+      </c>
+      <c r="O23" s="22">
+        <v>0.114217</v>
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="U23" s="23">
-        <v>0.95895799999999998</v>
+        <v>1000000</v>
+      </c>
+      <c r="U23" s="22">
+        <v>0.10934000000000001</v>
+      </c>
+      <c r="V23" s="58"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>9.1422000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="12"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="I24" s="23">
-        <v>9.2277269999999998</v>
+        <v>10000000</v>
+      </c>
+      <c r="I24" s="22">
+        <v>2.0694340000000002</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="O24" s="23">
-        <v>4.1590740000000004</v>
+        <v>10000000</v>
+      </c>
+      <c r="O24" s="22">
+        <v>1.0179640000000001</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="U24" s="23">
-        <v>3.7876859999999999</v>
+        <v>10000000</v>
+      </c>
+      <c r="U24" s="22">
+        <v>0.95895799999999998</v>
+      </c>
+      <c r="V24" s="58"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>0.76510999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="12"/>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="I25" s="23">
-        <v>8.0460860000000007</v>
+        <v>40000000</v>
+      </c>
+      <c r="I25" s="22">
+        <v>9.2277269999999998</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="O25" s="23">
-        <v>6.069553</v>
+        <v>40000000</v>
+      </c>
+      <c r="O25" s="22">
+        <v>4.1590740000000004</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="U25" s="22">
+        <v>3.7876859999999999</v>
+      </c>
+      <c r="V25" s="58"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>3.2156220000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7">
         <v>60000000</v>
       </c>
-      <c r="U25" s="23">
+      <c r="I26" s="22">
+        <v>8.0460860000000007</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="O26" s="22">
+        <v>6.069553</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="U26" s="22">
         <v>5.6638260000000002</v>
       </c>
+      <c r="V26" s="58"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="Y26" s="22">
+        <v>5.1323230000000004</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="12"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="9">
+    <row r="27" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="9">
         <v>100000000</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I27" s="22">
         <v>17.661725000000001</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="9">
+      <c r="M27" s="8"/>
+      <c r="N27" s="9">
         <v>100000000</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O27" s="23">
         <v>10.242729000000001</v>
       </c>
-      <c r="S26" s="8"/>
-      <c r="T26" s="9">
+      <c r="S27" s="8"/>
+      <c r="T27" s="9">
         <v>100000000</v>
       </c>
-      <c r="U26" s="24">
+      <c r="U27" s="23">
         <v>9.6105529999999995</v>
       </c>
+      <c r="V27" s="58"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="Y27" s="23">
+        <v>7.937487</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="12"/>
-      <c r="G27" s="4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="G28" s="4">
         <v>8</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H28" s="5">
         <v>1000</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I28" s="21">
         <v>3.2696000000000003E-2</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M28" s="4">
         <v>8</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N28" s="5">
         <v>1000</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O28" s="21">
         <v>7.2052000000000005E-2</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S28" s="4">
         <v>8</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T28" s="5">
         <v>1000</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U28" s="21">
         <v>7.3568999999999996E-2</v>
       </c>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="12"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7">
-        <v>10000</v>
-      </c>
-      <c r="I28" s="23">
-        <v>3.4938999999999998E-2</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="7">
-        <v>10000</v>
-      </c>
-      <c r="O28" s="23">
-        <v>7.1992E-2</v>
-      </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="7">
-        <v>10000</v>
-      </c>
-      <c r="U28" s="23">
-        <v>7.4436000000000002E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="16"/>
       <c r="C29" s="12"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I29" s="23">
-        <v>3.2759000000000003E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="I29" s="22">
+        <v>3.4938999999999998E-2</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="7">
-        <v>100000</v>
-      </c>
-      <c r="O29" s="23">
-        <v>7.6626E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="O29" s="22">
+        <v>7.1992E-2</v>
       </c>
       <c r="S29" s="6"/>
       <c r="T29" s="7">
-        <v>100000</v>
-      </c>
-      <c r="U29" s="23">
-        <v>7.8704999999999997E-2</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="U29" s="22">
+        <v>7.4436000000000002E-2</v>
+      </c>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="16"/>
       <c r="C30" s="12"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="I30" s="23">
-        <v>0.106812</v>
+        <v>100000</v>
+      </c>
+      <c r="I30" s="22">
+        <v>3.2759000000000003E-2</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="O30" s="23">
-        <v>0.15223800000000001</v>
+        <v>100000</v>
+      </c>
+      <c r="O30" s="22">
+        <v>7.6626E-2</v>
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="U30" s="23">
-        <v>0.139428</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="U30" s="22">
+        <v>7.8704999999999997E-2</v>
+      </c>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="16"/>
       <c r="C31" s="12"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="I31" s="23">
-        <v>1.969279</v>
+        <v>1000000</v>
+      </c>
+      <c r="I31" s="22">
+        <v>0.106812</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="O31" s="23">
-        <v>0.94901999999999997</v>
+        <v>1000000</v>
+      </c>
+      <c r="O31" s="22">
+        <v>0.15223800000000001</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="U31" s="23">
-        <v>0.71267100000000005</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="U31" s="22">
+        <v>0.139428</v>
+      </c>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="16"/>
       <c r="C32" s="12"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="I32" s="23">
-        <v>5.612908</v>
+        <v>10000000</v>
+      </c>
+      <c r="I32" s="22">
+        <v>1.969279</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="O32" s="23">
-        <v>3.7116820000000001</v>
+        <v>10000000</v>
+      </c>
+      <c r="O32" s="22">
+        <v>0.94901999999999997</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="U32" s="23">
-        <v>3.5185379999999999</v>
-      </c>
+        <v>10000000</v>
+      </c>
+      <c r="U32" s="22">
+        <v>0.71267100000000005</v>
+      </c>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="12"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="I33" s="23">
-        <v>7.4877630000000002</v>
+        <v>40000000</v>
+      </c>
+      <c r="I33" s="22">
+        <v>5.612908</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="O33" s="23">
-        <v>5.5948289999999998</v>
+        <v>40000000</v>
+      </c>
+      <c r="O33" s="22">
+        <v>3.7116820000000001</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="U33" s="23">
-        <v>4.6261109999999999</v>
-      </c>
+        <v>40000000</v>
+      </c>
+      <c r="U33" s="22">
+        <v>3.5185379999999999</v>
+      </c>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="7"/>
       <c r="C34" s="12"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="9">
+      <c r="H34" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="I34" s="22">
+        <v>7.4877630000000002</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="O34" s="22">
+        <v>5.5948289999999998</v>
+      </c>
+      <c r="S34" s="6"/>
+      <c r="T34" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="U34" s="22">
+        <v>4.6261109999999999</v>
+      </c>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="12"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="9">
         <v>100000000</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I35" s="22">
         <v>17.69699</v>
       </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="9">
+      <c r="M35" s="8"/>
+      <c r="N35" s="9">
         <v>100000000</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O35" s="23">
         <v>10.281098999999999</v>
       </c>
-      <c r="S34" s="8"/>
-      <c r="T34" s="9">
+      <c r="S35" s="8"/>
+      <c r="T35" s="9">
         <v>100000000</v>
       </c>
-      <c r="U34" s="24">
+      <c r="U35" s="23">
         <v>6.648949</v>
       </c>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G35" s="4">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G36" s="4">
         <v>10</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H36" s="5">
         <v>1000</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I36" s="21">
         <v>3.3357999999999999E-2</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M36" s="6">
         <v>10</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N36" s="7">
         <v>1000</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O36" s="22">
         <v>9.1994999999999993E-2</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S36" s="6">
         <v>10</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T36" s="7">
         <v>1000</v>
       </c>
-      <c r="U35" s="23">
+      <c r="U36" s="22">
         <v>9.2632000000000006E-2</v>
       </c>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G36" s="6"/>
-      <c r="H36" s="7">
-        <v>10000</v>
-      </c>
-      <c r="I36" s="23">
-        <v>3.3279000000000003E-2</v>
-      </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="7">
-        <v>10000</v>
-      </c>
-      <c r="O36" s="23">
-        <v>9.1552999999999995E-2</v>
-      </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="7">
-        <v>10000</v>
-      </c>
-      <c r="U36" s="23">
-        <v>9.2624999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G37" s="6"/>
       <c r="H37" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I37" s="23">
-        <v>4.0896000000000002E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="I37" s="22">
+        <v>3.3279000000000003E-2</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="7">
-        <v>100000</v>
-      </c>
-      <c r="O37" s="23">
-        <v>9.6810999999999994E-2</v>
+        <v>10000</v>
+      </c>
+      <c r="O37" s="22">
+        <v>9.1552999999999995E-2</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="7">
-        <v>100000</v>
-      </c>
-      <c r="U37" s="23">
-        <v>9.6196000000000004E-2</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="U37" s="22">
+        <v>9.2624999999999999E-2</v>
+      </c>
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="58"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G38" s="6"/>
       <c r="H38" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="I38" s="23">
-        <v>0.112668</v>
+        <v>100000</v>
+      </c>
+      <c r="I38" s="22">
+        <v>4.0896000000000002E-2</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="O38" s="23">
-        <v>0.180145</v>
+        <v>100000</v>
+      </c>
+      <c r="O38" s="22">
+        <v>9.6810999999999994E-2</v>
       </c>
       <c r="S38" s="6"/>
       <c r="T38" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="U38" s="23">
-        <v>0.14565600000000001</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="U38" s="22">
+        <v>9.6196000000000004E-2</v>
+      </c>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G39" s="6"/>
       <c r="H39" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="I39" s="23">
-        <v>1.4893460000000001</v>
+        <v>1000000</v>
+      </c>
+      <c r="I39" s="22">
+        <v>0.112668</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="O39" s="23">
-        <v>0.98182000000000003</v>
+        <v>1000000</v>
+      </c>
+      <c r="O39" s="22">
+        <v>0.180145</v>
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="U39" s="23">
-        <v>0.72607299999999997</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="U39" s="22">
+        <v>0.14565600000000001</v>
+      </c>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G40" s="6"/>
       <c r="H40" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="I40" s="23">
-        <v>5.4278599999999999</v>
+        <v>10000000</v>
+      </c>
+      <c r="I40" s="22">
+        <v>1.4893460000000001</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="O40" s="23">
-        <v>3.8628659999999999</v>
+        <v>10000000</v>
+      </c>
+      <c r="O40" s="22">
+        <v>0.98182000000000003</v>
       </c>
       <c r="S40" s="6"/>
       <c r="T40" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="U40" s="23">
-        <v>2.8551609999999998</v>
-      </c>
+        <v>10000000</v>
+      </c>
+      <c r="U40" s="22">
+        <v>0.72607299999999997</v>
+      </c>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G41" s="6"/>
       <c r="H41" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="I41" s="23">
-        <v>7.3298509999999997</v>
+        <v>40000000</v>
+      </c>
+      <c r="I41" s="22">
+        <v>5.4278599999999999</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="7">
-        <v>60000000</v>
-      </c>
-      <c r="O41" s="23">
-        <v>5.8000100000000003</v>
+        <v>40000000</v>
+      </c>
+      <c r="O41" s="22">
+        <v>3.8628659999999999</v>
       </c>
       <c r="S41" s="6"/>
       <c r="T41" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="U41" s="22">
+        <v>2.8551609999999998</v>
+      </c>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G42" s="6"/>
+      <c r="H42" s="7">
         <v>60000000</v>
       </c>
-      <c r="U41" s="23">
+      <c r="I42" s="22">
+        <v>7.3298509999999997</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="O42" s="22">
+        <v>5.8000100000000003</v>
+      </c>
+      <c r="S42" s="6"/>
+      <c r="T42" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="U42" s="22">
         <v>4.0918910000000004</v>
       </c>
+      <c r="V42" s="58"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="8"/>
-      <c r="H42" s="9">
+    <row r="43" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="8"/>
+      <c r="H43" s="9">
         <v>100000000</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I43" s="23">
         <v>18.356674999999999</v>
       </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="9">
+      <c r="M43" s="8"/>
+      <c r="N43" s="9">
         <v>100000000</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O43" s="23">
         <v>11.087198000000001</v>
       </c>
-      <c r="S42" s="8"/>
-      <c r="T42" s="9">
+      <c r="S43" s="8"/>
+      <c r="T43" s="9">
         <v>100000000</v>
       </c>
-      <c r="U42" s="24">
+      <c r="U43" s="23">
         <v>6.8938509999999997</v>
       </c>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="S1:U1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AG2:AK2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="10.7109375" style="43"/>
+    <col min="4" max="4" width="10.7109375" style="53"/>
+    <col min="5" max="11" width="10.7109375" style="43"/>
+    <col min="12" max="12" width="13.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" style="43"/>
+    <col min="15" max="15" width="13.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="N2" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="57"/>
+    </row>
+    <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1.34E-4</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="44">
+        <v>1</v>
+      </c>
+      <c r="L4" s="47">
+        <f>C11/C11</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="44">
+        <v>1</v>
+      </c>
+      <c r="O4" s="47">
+        <f>L4/N4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2.5079999999999998E-3</v>
+      </c>
+      <c r="K5" s="45">
+        <v>2</v>
+      </c>
+      <c r="L5" s="48">
+        <f>C11/C19</f>
+        <v>1.4511058673623036</v>
+      </c>
+      <c r="N5" s="45">
+        <v>2</v>
+      </c>
+      <c r="O5" s="48">
+        <f>'2 часть'!L5/'2 часть'!K5</f>
+        <v>0.72555293368115181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
+      <c r="B6" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1.8429999999999998E-2</v>
+      </c>
+      <c r="K6" s="46">
+        <v>4</v>
+      </c>
+      <c r="L6" s="49">
+        <f>C11/C27</f>
+        <v>2.2238393184527805</v>
+      </c>
+      <c r="N6" s="46">
+        <v>4</v>
+      </c>
+      <c r="O6" s="49">
+        <f>L6/K6</f>
+        <v>0.55595982961319512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.23242099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2.54006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="C9" s="13">
+        <v>10.270959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="C10" s="13">
+        <v>16.228383000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="C11" s="14">
+        <v>27.104227000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="50">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="7">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="51">
+        <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C14" s="51">
+        <v>1.3231E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C15" s="51">
+        <v>0.16317799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C16" s="51">
+        <v>1.711063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="C17" s="51">
+        <v>7.2684930000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="C18" s="51">
+        <v>11.413092000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="C19" s="52">
+        <v>18.678325000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="50">
+        <v>5.4799999999999998E-4</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="7">
+        <v>10000</v>
+      </c>
+      <c r="C21" s="51">
+        <v>1.2800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C22" s="51">
+        <v>9.5200000000000007E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C23" s="51">
+        <v>0.120951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1.0054510000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="C25" s="51">
+        <v>5.5020559999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="C26" s="51">
+        <v>6.3381689999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="C27" s="52">
+        <v>12.188033000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
